--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C9D45AF0B117976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64EB47D2-50B9-4B50-BB7D-2D1792790A49}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C08CDAD3AEB7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9299EB0A-78AA-4C26-A12A-9D5E76D24F49}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C08CDAD3AEB7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9299EB0A-78AA-4C26-A12A-9D5E76D24F49}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C1EF5AE1F897976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{994197D9-EF28-456B-9E7B-DB5FFF62F6B6}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C1EF5AE1F897976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{994197D9-EF28-456B-9E7B-DB5FFF62F6B6}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C1AD56C1C4F7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F72C9BB6-E76E-45A0-91A9-12E1FDD060DB}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C1AD56C1C4F7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F72C9BB6-E76E-45A0-91A9-12E1FDD060DB}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CA20DAD38CB7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACE47630-B267-4A3B-BA19-FAAE43B707F5}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CA20DAD38CB7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACE47630-B267-4A3B-BA19-FAAE43B707F5}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C23E5E8277F7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54D7F52A-05C9-45ED-A527-C6BDC9B0BF1D}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C23E5E8277F7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54D7F52A-05C9-45ED-A527-C6BDC9B0BF1D}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CE2EDAB21BB7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC019606-3D17-4D43-9976-3F3D953E4DDE}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CE2EDAB21BB7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC019606-3D17-4D43-9976-3F3D953E4DDE}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CEE55E80BA17976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2255701C-703B-484D-90BC-EB8AF929D2AA}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C4455E839A17976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF5C4198-FA9D-4447-9675-E6701E4B1C4B}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CAF65E9023F7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6B35636-D822-4380-8272-1454B28EF58A}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CAF65E9023F7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6B35636-D822-4380-8272-1454B28EF58A}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CA46D6F13637976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F022F72-52E5-43D0-A41F-525CF0E03A4B}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CA46D6F13637976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F022F72-52E5-43D0-A41F-525CF0E03A4B}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CC7956934637976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D03E4A6-BE76-4FFA-AF71-23B7070D2A4D}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CC7956934637976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D03E4A6-BE76-4FFA-AF71-23B7070D2A4D}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C7E0DEE10017976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BF7B70A-CFC2-4C23-92FB-AE50F188A0AB}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C7E0DEE10017976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BF7B70A-CFC2-4C23-92FB-AE50F188A0AB}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C49CD281A917976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAD2F9EE-1388-488C-99A3-9B9C954BFBB4}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C49CD281A917976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAD2F9EE-1388-488C-99A3-9B9C954BFBB4}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C374D69199B7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{206741AF-1145-4FA8-A3D5-0E77FE8EB25F}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C374D69199B7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{206741AF-1145-4FA8-A3D5-0E77FE8EB25F}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CDA9DEC21917876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF332D54-E74B-4082-B391-E3227180F6B2}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CA64D291E0D7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3867347E-7FD2-4F20-8FC3-73589F19C032}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C5DAD6C29FD7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A95A0569-EF4A-4295-BF7F-139666297429}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C5DAD6C29FD7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A95A0569-EF4A-4295-BF7F-139666297429}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C9E152D2EF57876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D37C67C9-B2F0-4433-9958-0E601744C6CC}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C9E152D2EF57876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D37C67C9-B2F0-4433-9958-0E601744C6CC}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CD25528290F7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2004D4B-7F6D-46AD-A47E-6B6D4F2C3A20}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CD25528290F7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2004D4B-7F6D-46AD-A47E-6B6D4F2C3A20}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CED852F07D57976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FE4D5E5-5A13-4956-B6F0-3F0794689292}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C9F056830077876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02113E0D-5AF1-4695-A179-36B2BBFC83A9}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C0F7DAD2EFB7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F2CE328-1FFA-4064-B2B1-993A7C55290F}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C0F7DAD2EFB7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F2CE328-1FFA-4064-B2B1-993A7C55290F}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C1BF5EB08817876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{321280FB-4AE4-422F-B4BC-7312A990EC74}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C1BF5EB08817876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{321280FB-4AE4-422F-B4BC-7312A990EC74}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C0C85E81C237976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74AB6DD6-818C-4829-AF7E-71541A47441B}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C0C85E81C237976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74AB6DD6-818C-4829-AF7E-71541A47441B}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C810DED2EA57876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4568A0BC-45E1-4DC1-87EC-10DE837DF792}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C810DED2EA57876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4568A0BC-45E1-4DC1-87EC-10DE837DF792}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C99B5EB2CED7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFB58B76-2471-4B75-A339-2D848DE368D8}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C99B5EB2CED7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFB58B76-2471-4B75-A339-2D848DE368D8}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C940DEC0BEB7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BA7F9BA-89FE-4E3E-9967-B440904F6E39}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C940DEC0BEB7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BA7F9BA-89FE-4E3E-9967-B440904F6E39}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C01B5AC2B917976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F33A198-73C1-45D4-B1B5-E00FBD417758}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C01B5AC2B917976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F33A198-73C1-45D4-B1B5-E00FBD417758}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C9A2DAE38AF7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FBE1002-D9CC-4BE7-A109-0A96FB851F30}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C9A2DAE38AF7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FBE1002-D9CC-4BE7-A109-0A96FB851F30}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CC3956925297876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A2263D0-6AC5-4A3D-BD8F-BB8D2F971021}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CABFDAD2BE97976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A02BE7B-AD55-4E67-B32A-8F9E85C1258B}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CCB3D2B3DEF7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FF663B1-CD99-475A-893E-AF24ABBB38C9}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CCB3D2B3DEF7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FF663B1-CD99-475A-893E-AF24ABBB38C9}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CBF85ED2F6D7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E182DDD0-C41D-455F-A707-0CA5DAD02F75}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CBF85ED2F6D7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E182DDD0-C41D-455F-A707-0CA5DAD02F75}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C3295AD02DF7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEBD7DA7-8973-497B-A9A9-16467C37C247}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CB4D5EA213D7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A526067-BF5A-4BFC-A09F-E2FB089D27CC}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C2F25EC0D3B7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89C38FCC-B918-4B1D-B87A-E93904E7A28A}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_715DC1F9088BCA31BF2C4C0E4D28264D7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E803423C-462B-457C-9BD0-A09606B0C7E3}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C93EDEA392D7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{222F3B8F-37C9-47B0-AE01-97B590BA6459}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2297,28 +2297,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1782"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -90109,6 +90105,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C93EDEA392D7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{222F3B8F-37C9-47B0-AE01-97B590BA6459}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C671D6F0D0F7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F1A8518-6137-45BA-810A-EA0B17A9554D}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C671D6F0D0F7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F1A8518-6137-45BA-810A-EA0B17A9554D}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C1FC52922AD7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE8CD03F-FDFF-47B6-B0E5-36410D5E67C9}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C1FC52922AD7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE8CD03F-FDFF-47B6-B0E5-36410D5E67C9}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C207D2A334F7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25E1CBAA-A864-49DE-9E60-53C51C94B525}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C207D2A334F7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25E1CBAA-A864-49DE-9E60-53C51C94B525}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C6E5D6E22BD7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{169FD313-6451-4BD4-A0B3-16F85F70771A}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/fundamentals_condensed_df.xlsx
+++ b/fundamentals_condensed_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25ac2033dcfcea55/Desktop/ALIENWARE - 2023-04_24 - Onwards/Python/Stock Market Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4C6E5D6E22BD7976A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{169FD313-6451-4BD4-A0B3-16F85F70771A}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_715DC1F9088BCA31BF2C4CF2BDAD3FEF7876A4C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A16B251F-EFFF-4509-8E60-CC32A42874D4}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
